--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value433.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value433.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.136167514449066</v>
+        <v>1.276005029678345</v>
       </c>
       <c r="B1">
-        <v>1.894058252773361</v>
+        <v>2.687077760696411</v>
       </c>
       <c r="C1">
-        <v>1.960570506488642</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.335337347718716</v>
+        <v>1.674093961715698</v>
       </c>
       <c r="E1">
-        <v>1.695872117332905</v>
+        <v>1.119034171104431</v>
       </c>
     </row>
   </sheetData>
